--- a/Excels/TestData.xlsx
+++ b/Excels/TestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B08E153-40F5-4F55-9A99-309AB119A5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7050" tabRatio="924" activeTab="8"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="924" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="394">
   <si>
     <t>username</t>
   </si>
@@ -1142,9 +1143,6 @@
     <t>Current Batch - 2021-22</t>
   </si>
   <si>
-    <t>Semester - Semester 1</t>
-  </si>
-  <si>
     <t>Station Announced</t>
   </si>
   <si>
@@ -1178,9 +1176,6 @@
     <t>Afour</t>
   </si>
   <si>
-    <t xml:space="preserve"> -</t>
-  </si>
-  <si>
     <t>testdelete</t>
   </si>
   <si>
@@ -1206,12 +1201,33 @@
   </si>
   <si>
     <t>invalid Password</t>
+  </si>
+  <si>
+    <t>Semester - Semester II</t>
+  </si>
+  <si>
+    <t>Suzlon</t>
+  </si>
+  <si>
+    <t>BITS New Delhi</t>
+  </si>
+  <si>
+    <t>bitsnewdelhi.com</t>
+  </si>
+  <si>
+    <t>2234567898</t>
+  </si>
+  <si>
+    <t>BITS Delhi Ltd, 64</t>
+  </si>
+  <si>
+    <t>N-72, Connaught Circus, Janpath,New Delhi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1672,11 +1688,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1854,7 +1870,7 @@
         <v>311</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>310</v>
@@ -1916,10 +1932,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A7" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -1927,11 +1943,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2097,10 +2113,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>133</v>
@@ -2148,10 +2164,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>123</v>
@@ -2229,7 +2245,7 @@
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L6">
         <v>11</v>
@@ -2243,6 +2259,54 @@
       <c r="O6">
         <v>14</v>
       </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2251,7 +2315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2340,7 +2404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2486,7 +2550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2556,7 +2620,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>164</v>
@@ -2565,7 +2629,7 @@
         <v>155</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>165</v>
@@ -2929,7 +2993,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2941,15 +3005,15 @@
     <mergeCell ref="A17:I17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3042,7 +3106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3080,7 +3144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3241,14 +3305,14 @@
     <mergeCell ref="A5:K5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3351,7 +3415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3401,10 +3465,12 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3447,7 +3513,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>12</v>
@@ -3456,7 +3522,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>39</v>
@@ -3491,7 +3557,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -3504,7 +3570,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>32</v>
@@ -3537,7 +3603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -3699,7 +3765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3740,7 +3806,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>39</v>
@@ -3784,7 +3850,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>49</v>
@@ -3817,13 +3883,13 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3833,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -3961,7 +4027,7 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G3" s="17">
         <v>123456789</v>
@@ -3972,7 +4038,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -4012,10 +4078,10 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4023,7 +4089,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O5" s="3"/>
     </row>
@@ -4042,13 +4108,13 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O6" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4056,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4151,7 +4217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4362,9 +4428,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://psmswebqastore.z30.web.core.windows.net/faculty/edit/683"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://psmswebqastore.z30.web.core.windows.net/faculty/edit/683" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -4372,7 +4438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4446,11 +4512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4535,11 +4601,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4889,11 +4955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4923,7 +4989,7 @@
         <v>151</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -5000,7 +5066,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B13" s="20">
         <v>0</v>
@@ -5067,7 +5133,7 @@
         <v>356</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -5075,7 +5141,7 @@
         <v>80</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -5083,7 +5149,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5096,15 +5162,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B26">
         <v>0</v>
